--- a/biology/Zoologie/Celleporina_costazii/Celleporina_costazii.xlsx
+++ b/biology/Zoologie/Celleporina_costazii/Celleporina_costazii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celleporina costazii (anciennement Costazia costazii) est une espèce d'ectoproctes de la famille des Celleporidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Audouin, 1826 : Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. in Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle.</t>
         </is>
